--- a/ES 3.P.292 13.08.2020.xlsx
+++ b/ES 3.P.292 13.08.2020.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23205"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsint\Desktop\niko\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD7DFBCC-4AEE-4022-9687-18AA13B1A520}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -18,9 +24,84 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="20">
+  <si>
+    <t>RAPPORTO ANNUALE</t>
+  </si>
+  <si>
+    <t>SERVIZI</t>
+  </si>
+  <si>
+    <t>I SEMESTRE</t>
+  </si>
+  <si>
+    <t>II SEMESTRE</t>
+  </si>
+  <si>
+    <t>VARIAZIONE INCASSI</t>
+  </si>
+  <si>
+    <t>Numero
+di abbonamenti</t>
+  </si>
+  <si>
+    <t>Costo
+unitario</t>
+  </si>
+  <si>
+    <t>Importo
+complessivo</t>
+  </si>
+  <si>
+    <t>Numero 
+di abbonamenti</t>
+  </si>
+  <si>
+    <t>Costo 
+unitario</t>
+  </si>
+  <si>
+    <t>Comfort</t>
+  </si>
+  <si>
+    <t>Club exclusive</t>
+  </si>
+  <si>
+    <t>Fitness Young</t>
+  </si>
+  <si>
+    <t>Body Junior</t>
+  </si>
+  <si>
+    <t>Spinning</t>
+  </si>
+  <si>
+    <t>Aqua Gym</t>
+  </si>
+  <si>
+    <t>Fitness Senior</t>
+  </si>
+  <si>
+    <t>TOTALI</t>
+  </si>
+  <si>
+    <t>Costo medio unitario
+degli abbonamenti</t>
+  </si>
+  <si>
+    <t>Numero servizi offerti</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ [$€-410]_-;\-* #,##0.00\ [$€-410]_-;_-* &quot;-&quot;??\ [$€-410]_-;_-@_-"/>
+  </numFmts>
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,16 +109,86 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color rgb="FF002060"/>
+      <name val="Elephant"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9F033B"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -45,18 +196,161 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="8" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="8" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
+    <cellStyle name="Valuta" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF9F033B"/>
+      <color rgb="FFCA0253"/>
+      <color rgb="FF4D3F5F"/>
+      <color rgb="FF841687"/>
+      <color rgb="FF6E2C69"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -330,13 +624,360 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.77734375" customWidth="1"/>
+    <col min="2" max="7" width="15.77734375" customWidth="1"/>
+    <col min="8" max="8" width="20.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="7"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="9"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="11"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="12">
+        <v>52</v>
+      </c>
+      <c r="C5" s="13">
+        <v>183</v>
+      </c>
+      <c r="D5" s="13">
+        <f>C5*B5</f>
+        <v>9516</v>
+      </c>
+      <c r="E5" s="12">
+        <v>64</v>
+      </c>
+      <c r="F5" s="14">
+        <v>190</v>
+      </c>
+      <c r="G5" s="14">
+        <f>E5*F5</f>
+        <v>12160</v>
+      </c>
+      <c r="H5" s="15">
+        <f>G5-D5</f>
+        <v>2644</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="16">
+        <v>102</v>
+      </c>
+      <c r="C6" s="17">
+        <v>160</v>
+      </c>
+      <c r="D6" s="17">
+        <f t="shared" ref="D6:D11" si="0">C6*B6</f>
+        <v>16320</v>
+      </c>
+      <c r="E6" s="16">
+        <v>92</v>
+      </c>
+      <c r="F6" s="18">
+        <v>186</v>
+      </c>
+      <c r="G6" s="18">
+        <f t="shared" ref="G6:G11" si="1">E6*F6</f>
+        <v>17112</v>
+      </c>
+      <c r="H6" s="15">
+        <f t="shared" ref="H6:H11" si="2">G6-D6</f>
+        <v>792</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="12">
+        <v>117</v>
+      </c>
+      <c r="C7" s="13">
+        <v>185</v>
+      </c>
+      <c r="D7" s="13">
+        <f t="shared" si="0"/>
+        <v>21645</v>
+      </c>
+      <c r="E7" s="12">
+        <v>84</v>
+      </c>
+      <c r="F7" s="14">
+        <v>195</v>
+      </c>
+      <c r="G7" s="14">
+        <f t="shared" si="1"/>
+        <v>16380</v>
+      </c>
+      <c r="H7" s="15">
+        <f t="shared" si="2"/>
+        <v>-5265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="16">
+        <v>92</v>
+      </c>
+      <c r="C8" s="17">
+        <v>115</v>
+      </c>
+      <c r="D8" s="17">
+        <f t="shared" si="0"/>
+        <v>10580</v>
+      </c>
+      <c r="E8" s="16">
+        <v>83</v>
+      </c>
+      <c r="F8" s="18">
+        <v>126</v>
+      </c>
+      <c r="G8" s="18">
+        <f t="shared" si="1"/>
+        <v>10458</v>
+      </c>
+      <c r="H8" s="15">
+        <f t="shared" si="2"/>
+        <v>-122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="12">
+        <v>45</v>
+      </c>
+      <c r="C9" s="13">
+        <v>148</v>
+      </c>
+      <c r="D9" s="13">
+        <f t="shared" si="0"/>
+        <v>6660</v>
+      </c>
+      <c r="E9" s="12">
+        <v>60</v>
+      </c>
+      <c r="F9" s="14">
+        <v>153</v>
+      </c>
+      <c r="G9" s="14">
+        <f t="shared" si="1"/>
+        <v>9180</v>
+      </c>
+      <c r="H9" s="15">
+        <f t="shared" si="2"/>
+        <v>2520</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" s="16">
+        <v>94</v>
+      </c>
+      <c r="C10" s="17">
+        <v>126</v>
+      </c>
+      <c r="D10" s="17">
+        <f t="shared" si="0"/>
+        <v>11844</v>
+      </c>
+      <c r="E10" s="16">
+        <v>124</v>
+      </c>
+      <c r="F10" s="18">
+        <v>135</v>
+      </c>
+      <c r="G10" s="18">
+        <f t="shared" si="1"/>
+        <v>16740</v>
+      </c>
+      <c r="H10" s="15">
+        <f t="shared" si="2"/>
+        <v>4896</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="12">
+        <v>87</v>
+      </c>
+      <c r="C11" s="13">
+        <v>193</v>
+      </c>
+      <c r="D11" s="13">
+        <f t="shared" si="0"/>
+        <v>16791</v>
+      </c>
+      <c r="E11" s="12">
+        <v>92</v>
+      </c>
+      <c r="F11" s="14">
+        <v>205</v>
+      </c>
+      <c r="G11" s="14">
+        <f t="shared" si="1"/>
+        <v>18860</v>
+      </c>
+      <c r="H11" s="15">
+        <f t="shared" si="2"/>
+        <v>2069</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="24.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="5">
+        <f>SUM(B5:B11)</f>
+        <v>589</v>
+      </c>
+      <c r="C12" s="19"/>
+      <c r="D12" s="20">
+        <f>SUM(D5:D11)</f>
+        <v>93356</v>
+      </c>
+      <c r="E12" s="5">
+        <f>SUM(E5:E11)</f>
+        <v>599</v>
+      </c>
+      <c r="F12" s="19"/>
+      <c r="G12" s="21">
+        <f t="shared" ref="F12:H12" si="3">SUM(G5:G11)</f>
+        <v>100890</v>
+      </c>
+      <c r="H12" s="15">
+        <f t="shared" si="3"/>
+        <v>7534</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24">
+        <f>AVERAGE(C5:C11)</f>
+        <v>158.57142857142858</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="26">
+        <f>AVERAGE(F5:F11)</f>
+        <v>170</v>
+      </c>
+      <c r="G13" s="25"/>
+      <c r="H13" s="27"/>
+    </row>
+    <row r="14" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="30">
+        <f>COUNT(B5:B11)</f>
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="G3:G4"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>